--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A23758-65A2-4329-AF56-DB51E72E008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -859,11 +860,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0,無計件 1.有計件
-寫入介紹人業績明細檔時，代碼(2&amp;B)之是否計件寫入(代碼1&amp;A)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>房貸專員件數</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -884,22 +880,31 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 1.計件代碼變更前(留存)2.部分償還 3.提前結案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>DrawdownAmt</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PfDetail</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:撥款(計件代碼變更)
+1:計件代碼變更前(留存)
+2:部分償還
+3:提前結案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:無計件
+1:有計件
+寫入介紹人業績明細檔時，代碼(2&amp;B)之是否計件寫入(代碼1&amp;A)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1225,12 +1230,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,6 +1326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1356,6 +1378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1531,11 +1570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1596,7 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>105</v>
@@ -1769,7 +1808,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1785,8 +1824,8 @@
       <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>215</v>
+      <c r="G15" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1811,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>126</v>
@@ -1908,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>70</v>
@@ -2140,7 +2179,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>26</v>
       </c>
@@ -2160,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2461,10 +2500,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>25</v>
@@ -3012,10 +3051,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
@@ -3085,10 +3124,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
